--- a/02-data-journalism/data/malaria_data.xlsx
+++ b/02-data-journalism/data/malaria_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat365-calpoly/02-data-journalism/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D8B2FBAE-08C5-471E-8B30-A3F9C7ABAC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:40009_{D8B2FBAE-08C5-471E-8B30-A3F9C7ABAC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A462CF4A-6626-4D07-9D3E-515D60E2EED4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="malaria_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="malaria_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">malaria_data!$A$1:$D$440</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">malaria_data!$A$1:$D$440</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -51,11 +55,35 @@
   <si>
     <t>Age_months</t>
   </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Count of ID</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Total Count of ID</t>
+  </si>
+  <si>
+    <t>Total Average of Age_months</t>
+  </si>
+  <si>
+    <t>Average of Age_months</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,8 +561,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -591,6 +625,2784 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Emily Anna Robinson" refreshedDate="45027.687562037034" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="440" xr:uid="{388DF054-38B0-4FEE-A7AE-8FA1DCD36BCE}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D1048576" sheet="malaria_data"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="439"/>
+    </cacheField>
+    <cacheField name="Age_months" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="17"/>
+    </cacheField>
+    <cacheField name="Vaccine" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Low Dose"/>
+        <s v="High Dose"/>
+        <s v="Placebo"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Malaria" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Did Not Develop Malaria"/>
+        <s v="Developed Malaria"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="440">
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="14"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="11"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <n v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <n v="14"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <n v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <n v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <n v="16"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <n v="16"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <n v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <n v="16"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <n v="16"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <n v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <n v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <n v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <n v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <n v="16"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <n v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <n v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <n v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <n v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <n v="13"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <n v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <n v="11"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <n v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <n v="17"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <n v="16"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <n v="17"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <n v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <n v="16"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <n v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <n v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="146"/>
+    <n v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="147"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <n v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="151"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="152"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="153"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <n v="14"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="155"/>
+    <n v="12"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="156"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="157"/>
+    <n v="16"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="158"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="159"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="160"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="161"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="162"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="163"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="164"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="166"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="167"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="168"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="169"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="170"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="171"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="172"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="173"/>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="174"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="175"/>
+    <n v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="176"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="178"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="179"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="181"/>
+    <n v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="182"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="184"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <n v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="186"/>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="187"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="188"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="189"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="190"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="191"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="192"/>
+    <n v="16"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="193"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="194"/>
+    <n v="12"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="195"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="196"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="197"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="198"/>
+    <n v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="199"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="200"/>
+    <n v="11"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="201"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="202"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="203"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="204"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="205"/>
+    <n v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="206"/>
+    <n v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="207"/>
+    <n v="12"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="208"/>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="209"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="210"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="211"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="212"/>
+    <n v="12"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="213"/>
+    <n v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="214"/>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="215"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="216"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="217"/>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="218"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="219"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="220"/>
+    <n v="13"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="221"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="222"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="223"/>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="224"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="225"/>
+    <n v="14"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="226"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="227"/>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="228"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="229"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="230"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="231"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="232"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="233"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="234"/>
+    <n v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="235"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="236"/>
+    <n v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="237"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="238"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="239"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="240"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="241"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="242"/>
+    <n v="14"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="243"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="244"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="245"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="246"/>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="247"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="248"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="249"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="250"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="251"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="252"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="253"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="254"/>
+    <n v="12"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="255"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="256"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="257"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="258"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="259"/>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="260"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="261"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="262"/>
+    <n v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="263"/>
+    <n v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="264"/>
+    <n v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="265"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="266"/>
+    <n v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="267"/>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="268"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="269"/>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="270"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="271"/>
+    <n v="13"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="272"/>
+    <n v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="273"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="274"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="275"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="276"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="277"/>
+    <n v="12"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="278"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="279"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="280"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="281"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="282"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="283"/>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="284"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="285"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="286"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="287"/>
+    <n v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="288"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="289"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="290"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="291"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="292"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="293"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="294"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="295"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="296"/>
+    <n v="12"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="297"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="298"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="299"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="300"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="301"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="302"/>
+    <n v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="303"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="304"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="305"/>
+    <n v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="306"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="307"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="308"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="309"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="310"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="311"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="312"/>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="313"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="314"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="315"/>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="316"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="317"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="318"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="319"/>
+    <n v="14"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="320"/>
+    <n v="17"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="321"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="322"/>
+    <n v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="323"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="324"/>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="325"/>
+    <n v="11"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="326"/>
+    <n v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="327"/>
+    <n v="12"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="328"/>
+    <n v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="329"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="330"/>
+    <n v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="331"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="332"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="333"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="334"/>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="335"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="336"/>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="337"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="338"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="339"/>
+    <n v="11"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="340"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="341"/>
+    <n v="14"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="342"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="343"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="344"/>
+    <n v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="345"/>
+    <n v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="346"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="347"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="348"/>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="349"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="350"/>
+    <n v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="351"/>
+    <n v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="352"/>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="353"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="354"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="355"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="356"/>
+    <n v="12"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="357"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="358"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="359"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="360"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="361"/>
+    <n v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="362"/>
+    <n v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="363"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="364"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="365"/>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="366"/>
+    <n v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="367"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="368"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="369"/>
+    <n v="14"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="370"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="371"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="372"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="373"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="374"/>
+    <n v="14"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="375"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="376"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="377"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="378"/>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="379"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="380"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="381"/>
+    <n v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="382"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="383"/>
+    <n v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="384"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="385"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="386"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="387"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="388"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="389"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="390"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="391"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="392"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="393"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="394"/>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="395"/>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="396"/>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="397"/>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="398"/>
+    <n v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="399"/>
+    <n v="13"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="400"/>
+    <n v="11"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="401"/>
+    <n v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="402"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="403"/>
+    <n v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="404"/>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="405"/>
+    <n v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="406"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="407"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="408"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="409"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="410"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="411"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="412"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="413"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="414"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="415"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="416"/>
+    <n v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="417"/>
+    <n v="13"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="418"/>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="419"/>
+    <n v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="420"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="421"/>
+    <n v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="422"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="423"/>
+    <n v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="424"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="425"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="426"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="427"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="428"/>
+    <n v="11"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="429"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="430"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="431"/>
+    <n v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="432"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="433"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="434"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="435"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="436"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="437"/>
+    <n v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="438"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="439"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A50AB9A-863A-47AD-8C0B-34F23779AAFD}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:K9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of ID" fld="0" subtotal="count" showDataAs="percentOfCol" baseField="3" baseItem="0" numFmtId="10"/>
+    <dataField name="Average of Age_months" fld="1" subtotal="average" baseField="3" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -889,19 +3701,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D73CACA-E99D-4253-8B61-63A27D96AB4D}">
+  <dimension ref="A3:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.26027397260273971</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7.6842105263157894</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.29452054794520549</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8.1395348837209305</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8.6190476190476186</v>
+      </c>
+      <c r="H6" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3">
+        <v>0.42369020501138954</v>
+      </c>
+      <c r="K6" s="4">
+        <v>8.3172043010752681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.73972602739726023</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.7222222222222214</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.70547945205479456</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9.0970873786407775</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10.214285714285714</v>
+      </c>
+      <c r="H7" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3">
+        <v>0.57630979498861046</v>
+      </c>
+      <c r="K7" s="4">
+        <v>9.1225296442687753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8.4520547945205475</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8.8150684931506849</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9.0748299319727899</v>
+      </c>
+      <c r="H9" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>8.7813211845102508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D440"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
